--- a/input/ocha_pop_MMR4.xlsx
+++ b/input/ocha_pop_MMR4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/pin-calculation-app/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="343" documentId="13_ncr:1_{59E61301-DE0E-4AD8-9E51-0BB6543F4157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6DC46DF-DD8A-44B2-8FF6-833B95EF7486}"/>
+  <xr:revisionPtr revIDLastSave="344" documentId="13_ncr:1_{59E61301-DE0E-4AD8-9E51-0BB6543F4157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F15AA939-F5D4-4D2D-AB4E-9D5070B9615F}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ocha" sheetId="1" r:id="rId1"/>
@@ -1881,11 +1881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:O289"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B164" sqref="B164:B177"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1937,7 +1936,7 @@
       </c>
       <c r="N1" s="10"/>
     </row>
-    <row r="2" spans="1:15" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1977,7 +1976,7 @@
       </c>
       <c r="O2" s="14"/>
     </row>
-    <row r="3" spans="1:15" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2017,7 +2016,7 @@
       </c>
       <c r="O3" s="15"/>
     </row>
-    <row r="4" spans="1:15" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2057,7 +2056,7 @@
       </c>
       <c r="O4" s="14"/>
     </row>
-    <row r="5" spans="1:15" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2097,7 +2096,7 @@
       </c>
       <c r="O5" s="15"/>
     </row>
-    <row r="6" spans="1:15" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2137,7 +2136,7 @@
       </c>
       <c r="O6" s="14"/>
     </row>
-    <row r="7" spans="1:15" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2177,7 +2176,7 @@
       </c>
       <c r="O7" s="15"/>
     </row>
-    <row r="8" spans="1:15" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2217,7 +2216,7 @@
       </c>
       <c r="O8" s="14"/>
     </row>
-    <row r="9" spans="1:15" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2257,7 +2256,7 @@
       </c>
       <c r="O9" s="15"/>
     </row>
-    <row r="10" spans="1:15" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -2297,7 +2296,7 @@
       </c>
       <c r="O10" s="14"/>
     </row>
-    <row r="11" spans="1:15" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2337,7 +2336,7 @@
       </c>
       <c r="O11" s="15"/>
     </row>
-    <row r="12" spans="1:15" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -2377,7 +2376,7 @@
       </c>
       <c r="O12" s="14"/>
     </row>
-    <row r="13" spans="1:15" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2417,7 +2416,7 @@
       </c>
       <c r="O13" s="15"/>
     </row>
-    <row r="14" spans="1:15" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2457,7 +2456,7 @@
       </c>
       <c r="O14" s="14"/>
     </row>
-    <row r="15" spans="1:15" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -2497,7 +2496,7 @@
       </c>
       <c r="O15" s="15"/>
     </row>
-    <row r="16" spans="1:15" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -2537,7 +2536,7 @@
       </c>
       <c r="O16" s="14"/>
     </row>
-    <row r="17" spans="1:15" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -2577,7 +2576,7 @@
       </c>
       <c r="O17" s="15"/>
     </row>
-    <row r="18" spans="1:15" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -2617,7 +2616,7 @@
       </c>
       <c r="O18" s="14"/>
     </row>
-    <row r="19" spans="1:15" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -2657,7 +2656,7 @@
       </c>
       <c r="O19" s="15"/>
     </row>
-    <row r="20" spans="1:15" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="s">
         <v>62</v>
       </c>
@@ -2694,7 +2693,7 @@
       </c>
       <c r="O20" s="14"/>
     </row>
-    <row r="21" spans="1:15" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B21" s="17" t="s">
         <v>92</v>
       </c>
@@ -2731,7 +2730,7 @@
       </c>
       <c r="O21" s="15"/>
     </row>
-    <row r="22" spans="1:15" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B22" s="17" t="s">
         <v>78</v>
       </c>
@@ -2768,7 +2767,7 @@
       </c>
       <c r="O22" s="14"/>
     </row>
-    <row r="23" spans="1:15" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B23" s="17" t="s">
         <v>41</v>
       </c>
@@ -2805,7 +2804,7 @@
       </c>
       <c r="O23" s="15"/>
     </row>
-    <row r="24" spans="1:15" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="17" t="s">
         <v>150</v>
       </c>
@@ -2842,7 +2841,7 @@
       </c>
       <c r="O24" s="14"/>
     </row>
-    <row r="25" spans="1:15" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B25" s="17" t="s">
         <v>80</v>
       </c>
@@ -2879,7 +2878,7 @@
       </c>
       <c r="O25" s="15"/>
     </row>
-    <row r="26" spans="1:15" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B26" s="17" t="s">
         <v>38</v>
       </c>
@@ -2915,7 +2914,7 @@
         <v>22154.399999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B27" s="17" t="s">
         <v>65</v>
       </c>
@@ -2951,7 +2950,7 @@
         <v>20092.05</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B28" s="17" t="s">
         <v>36</v>
       </c>
@@ -2987,7 +2986,7 @@
         <v>51431.7</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B29" s="17" t="s">
         <v>39</v>
       </c>
@@ -3023,7 +3022,7 @@
         <v>10560.9</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B30" s="17" t="s">
         <v>128</v>
       </c>
@@ -3059,7 +3058,7 @@
         <v>100631.25</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B31" s="17" t="s">
         <v>137</v>
       </c>
@@ -3095,7 +3094,7 @@
         <v>24456.899999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B32" s="17" t="s">
         <v>66</v>
       </c>
@@ -3131,7 +3130,7 @@
         <v>20153.55</v>
       </c>
     </row>
-    <row r="33" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B33" s="17" t="s">
         <v>117</v>
       </c>
@@ -3167,7 +3166,7 @@
         <v>17537.25</v>
       </c>
     </row>
-    <row r="34" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B34" s="17" t="s">
         <v>58</v>
       </c>
@@ -3203,7 +3202,7 @@
         <v>16707.75</v>
       </c>
     </row>
-    <row r="35" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B35" s="17" t="s">
         <v>235</v>
       </c>
@@ -3239,7 +3238,7 @@
         <v>17652.899999999998</v>
       </c>
     </row>
-    <row r="36" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B36" s="17" t="s">
         <v>199</v>
       </c>
@@ -3275,7 +3274,7 @@
         <v>60905.399999999994</v>
       </c>
     </row>
-    <row r="37" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B37" s="17" t="s">
         <v>310</v>
       </c>
@@ -3311,7 +3310,7 @@
         <v>15162.9</v>
       </c>
     </row>
-    <row r="38" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B38" s="17" t="s">
         <v>178</v>
       </c>
@@ -3347,7 +3346,7 @@
         <v>44300.7</v>
       </c>
     </row>
-    <row r="39" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B39" s="17" t="s">
         <v>190</v>
       </c>
@@ -3383,7 +3382,7 @@
         <v>20170.05</v>
       </c>
     </row>
-    <row r="40" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B40" s="17" t="s">
         <v>33</v>
       </c>
@@ -3419,7 +3418,7 @@
         <v>18273.3</v>
       </c>
     </row>
-    <row r="41" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B41" s="17" t="s">
         <v>107</v>
       </c>
@@ -3455,7 +3454,7 @@
         <v>17005.05</v>
       </c>
     </row>
-    <row r="42" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B42" s="17" t="s">
         <v>306</v>
       </c>
@@ -3491,7 +3490,7 @@
         <v>37194.299999999996</v>
       </c>
     </row>
-    <row r="43" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B43" s="17" t="s">
         <v>191</v>
       </c>
@@ -3527,7 +3526,7 @@
         <v>15235.8</v>
       </c>
     </row>
-    <row r="44" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
         <v>85</v>
       </c>
@@ -3563,7 +3562,7 @@
         <v>22154.399999999998</v>
       </c>
     </row>
-    <row r="45" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B45" s="17" t="s">
         <v>74</v>
       </c>
@@ -3599,7 +3598,7 @@
         <v>20092.05</v>
       </c>
     </row>
-    <row r="46" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>188</v>
       </c>
@@ -3635,7 +3634,7 @@
         <v>51431.7</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B47" s="17" t="s">
         <v>293</v>
       </c>
@@ -3671,7 +3670,7 @@
         <v>10560.9</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
         <v>307</v>
       </c>
@@ -3707,7 +3706,7 @@
         <v>100631.25</v>
       </c>
     </row>
-    <row r="49" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B49" s="17" t="s">
         <v>161</v>
       </c>
@@ -3743,7 +3742,7 @@
         <v>24456.899999999998</v>
       </c>
     </row>
-    <row r="50" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B50" s="17" t="s">
         <v>90</v>
       </c>
@@ -3779,7 +3778,7 @@
         <v>20153.55</v>
       </c>
     </row>
-    <row r="51" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B51" s="17" t="s">
         <v>305</v>
       </c>
@@ -3815,7 +3814,7 @@
         <v>17537.25</v>
       </c>
     </row>
-    <row r="52" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B52" s="17" t="s">
         <v>86</v>
       </c>
@@ -3851,7 +3850,7 @@
         <v>16707.75</v>
       </c>
     </row>
-    <row r="53" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B53" s="17" t="s">
         <v>125</v>
       </c>
@@ -3887,7 +3886,7 @@
         <v>17652.899999999998</v>
       </c>
     </row>
-    <row r="54" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B54" s="17" t="s">
         <v>255</v>
       </c>
@@ -3923,7 +3922,7 @@
         <v>60905.399999999994</v>
       </c>
     </row>
-    <row r="55" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B55" s="17" t="s">
         <v>214</v>
       </c>
@@ -3959,7 +3958,7 @@
         <v>15162.9</v>
       </c>
     </row>
-    <row r="56" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B56" s="17" t="s">
         <v>118</v>
       </c>
@@ -3995,7 +3994,7 @@
         <v>44300.7</v>
       </c>
     </row>
-    <row r="57" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B57" s="17" t="s">
         <v>277</v>
       </c>
@@ -4031,7 +4030,7 @@
         <v>20170.05</v>
       </c>
     </row>
-    <row r="58" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B58" s="17" t="s">
         <v>45</v>
       </c>
@@ -4067,7 +4066,7 @@
         <v>18273.3</v>
       </c>
     </row>
-    <row r="59" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B59" s="17" t="s">
         <v>297</v>
       </c>
@@ -4103,7 +4102,7 @@
         <v>17005.05</v>
       </c>
     </row>
-    <row r="60" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B60" s="17" t="s">
         <v>99</v>
       </c>
@@ -4139,7 +4138,7 @@
         <v>37194.299999999996</v>
       </c>
     </row>
-    <row r="61" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B61" s="17" t="s">
         <v>223</v>
       </c>
@@ -4175,7 +4174,7 @@
         <v>15235.8</v>
       </c>
     </row>
-    <row r="62" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B62" s="17" t="s">
         <v>130</v>
       </c>
@@ -4211,7 +4210,7 @@
         <v>22154.399999999998</v>
       </c>
     </row>
-    <row r="63" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B63" s="17" t="s">
         <v>314</v>
       </c>
@@ -4247,7 +4246,7 @@
         <v>20092.05</v>
       </c>
     </row>
-    <row r="64" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B64" s="17" t="s">
         <v>265</v>
       </c>
@@ -4283,7 +4282,7 @@
         <v>51431.7</v>
       </c>
     </row>
-    <row r="65" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B65" s="17" t="s">
         <v>233</v>
       </c>
@@ -4319,7 +4318,7 @@
         <v>10560.9</v>
       </c>
     </row>
-    <row r="66" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B66" s="17" t="s">
         <v>141</v>
       </c>
@@ -4355,7 +4354,7 @@
         <v>100631.25</v>
       </c>
     </row>
-    <row r="67" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B67" s="17" t="s">
         <v>139</v>
       </c>
@@ -4391,7 +4390,7 @@
         <v>24456.899999999998</v>
       </c>
     </row>
-    <row r="68" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B68" s="17" t="s">
         <v>94</v>
       </c>
@@ -4427,7 +4426,7 @@
         <v>20153.55</v>
       </c>
     </row>
-    <row r="69" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B69" s="17" t="s">
         <v>83</v>
       </c>
@@ -4463,7 +4462,7 @@
         <v>17537.25</v>
       </c>
     </row>
-    <row r="70" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B70" s="17" t="s">
         <v>245</v>
       </c>
@@ -4499,7 +4498,7 @@
         <v>16707.75</v>
       </c>
     </row>
-    <row r="71" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B71" s="17" t="s">
         <v>142</v>
       </c>
@@ -4535,7 +4534,7 @@
         <v>17652.899999999998</v>
       </c>
     </row>
-    <row r="72" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B72" s="17" t="s">
         <v>129</v>
       </c>
@@ -4571,7 +4570,7 @@
         <v>60905.399999999994</v>
       </c>
     </row>
-    <row r="73" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B73" s="17" t="s">
         <v>121</v>
       </c>
@@ -4607,7 +4606,7 @@
         <v>15162.9</v>
       </c>
     </row>
-    <row r="74" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B74" s="17" t="s">
         <v>210</v>
       </c>
@@ -4643,7 +4642,7 @@
         <v>44300.7</v>
       </c>
     </row>
-    <row r="75" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B75" s="17" t="s">
         <v>167</v>
       </c>
@@ -4679,7 +4678,7 @@
         <v>20170.05</v>
       </c>
     </row>
-    <row r="76" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B76" s="17" t="s">
         <v>127</v>
       </c>
@@ -4715,7 +4714,7 @@
         <v>18273.3</v>
       </c>
     </row>
-    <row r="77" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B77" s="17" t="s">
         <v>244</v>
       </c>
@@ -4751,7 +4750,7 @@
         <v>17005.05</v>
       </c>
     </row>
-    <row r="78" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B78" s="17" t="s">
         <v>273</v>
       </c>
@@ -4787,7 +4786,7 @@
         <v>37194.299999999996</v>
       </c>
     </row>
-    <row r="79" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B79" s="17" t="s">
         <v>56</v>
       </c>
@@ -4823,7 +4822,7 @@
         <v>15235.8</v>
       </c>
     </row>
-    <row r="80" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B80" s="17" t="s">
         <v>108</v>
       </c>
@@ -4859,7 +4858,7 @@
         <v>22154.399999999998</v>
       </c>
     </row>
-    <row r="81" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B81" s="17" t="s">
         <v>88</v>
       </c>
@@ -4895,7 +4894,7 @@
         <v>20092.05</v>
       </c>
     </row>
-    <row r="82" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B82" s="17" t="s">
         <v>195</v>
       </c>
@@ -4931,7 +4930,7 @@
         <v>51431.7</v>
       </c>
     </row>
-    <row r="83" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B83" s="17" t="s">
         <v>72</v>
       </c>
@@ -4967,7 +4966,7 @@
         <v>10560.9</v>
       </c>
     </row>
-    <row r="84" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B84" s="17" t="s">
         <v>147</v>
       </c>
@@ -5003,7 +5002,7 @@
         <v>100631.25</v>
       </c>
     </row>
-    <row r="85" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B85" s="17" t="s">
         <v>156</v>
       </c>
@@ -5039,7 +5038,7 @@
         <v>24456.899999999998</v>
       </c>
     </row>
-    <row r="86" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B86" s="17" t="s">
         <v>77</v>
       </c>
@@ -5075,7 +5074,7 @@
         <v>20153.55</v>
       </c>
     </row>
-    <row r="87" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B87" s="17" t="s">
         <v>201</v>
       </c>
@@ -5111,7 +5110,7 @@
         <v>17537.25</v>
       </c>
     </row>
-    <row r="88" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B88" s="17" t="s">
         <v>304</v>
       </c>
@@ -5147,7 +5146,7 @@
         <v>16707.75</v>
       </c>
     </row>
-    <row r="89" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B89" s="17" t="s">
         <v>153</v>
       </c>
@@ -5183,7 +5182,7 @@
         <v>17652.899999999998</v>
       </c>
     </row>
-    <row r="90" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B90" s="17" t="s">
         <v>133</v>
       </c>
@@ -5219,7 +5218,7 @@
         <v>60905.399999999994</v>
       </c>
     </row>
-    <row r="91" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B91" s="17" t="s">
         <v>192</v>
       </c>
@@ -5255,7 +5254,7 @@
         <v>15162.9</v>
       </c>
     </row>
-    <row r="92" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B92" s="17" t="s">
         <v>149</v>
       </c>
@@ -5291,7 +5290,7 @@
         <v>44300.7</v>
       </c>
     </row>
-    <row r="93" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B93" s="17" t="s">
         <v>281</v>
       </c>
@@ -5327,7 +5326,7 @@
         <v>20170.05</v>
       </c>
     </row>
-    <row r="94" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B94" s="17" t="s">
         <v>79</v>
       </c>
@@ -5363,7 +5362,7 @@
         <v>18273.3</v>
       </c>
     </row>
-    <row r="95" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B95" s="17" t="s">
         <v>155</v>
       </c>
@@ -5399,7 +5398,7 @@
         <v>17005.05</v>
       </c>
     </row>
-    <row r="96" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B96" s="17" t="s">
         <v>198</v>
       </c>
@@ -5435,7 +5434,7 @@
         <v>37194.299999999996</v>
       </c>
     </row>
-    <row r="97" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B97" s="17" t="s">
         <v>256</v>
       </c>
@@ -5471,7 +5470,7 @@
         <v>15235.8</v>
       </c>
     </row>
-    <row r="98" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B98" s="17" t="s">
         <v>205</v>
       </c>
@@ -5507,7 +5506,7 @@
         <v>22154.399999999998</v>
       </c>
     </row>
-    <row r="99" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B99" s="17" t="s">
         <v>209</v>
       </c>
@@ -5543,7 +5542,7 @@
         <v>20092.05</v>
       </c>
     </row>
-    <row r="100" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B100" s="17" t="s">
         <v>170</v>
       </c>
@@ -5579,7 +5578,7 @@
         <v>51431.7</v>
       </c>
     </row>
-    <row r="101" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B101" s="17" t="s">
         <v>181</v>
       </c>
@@ -5615,7 +5614,7 @@
         <v>10560.9</v>
       </c>
     </row>
-    <row r="102" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B102" s="17" t="s">
         <v>136</v>
       </c>
@@ -5651,7 +5650,7 @@
         <v>100631.25</v>
       </c>
     </row>
-    <row r="103" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B103" s="17" t="s">
         <v>236</v>
       </c>
@@ -5687,7 +5686,7 @@
         <v>24456.899999999998</v>
       </c>
     </row>
-    <row r="104" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B104" s="17" t="s">
         <v>132</v>
       </c>
@@ -5723,7 +5722,7 @@
         <v>20153.55</v>
       </c>
     </row>
-    <row r="105" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B105" s="17" t="s">
         <v>145</v>
       </c>
@@ -5759,7 +5758,7 @@
         <v>17537.25</v>
       </c>
     </row>
-    <row r="106" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B106" s="17" t="s">
         <v>287</v>
       </c>
@@ -5795,7 +5794,7 @@
         <v>16707.75</v>
       </c>
     </row>
-    <row r="107" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B107" s="17" t="s">
         <v>260</v>
       </c>
@@ -5831,7 +5830,7 @@
         <v>17652.899999999998</v>
       </c>
     </row>
-    <row r="108" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B108" s="17" t="s">
         <v>240</v>
       </c>
@@ -5867,7 +5866,7 @@
         <v>60905.399999999994</v>
       </c>
     </row>
-    <row r="109" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B109" s="17" t="s">
         <v>100</v>
       </c>
@@ -5903,7 +5902,7 @@
         <v>15162.9</v>
       </c>
     </row>
-    <row r="110" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B110" s="17" t="s">
         <v>113</v>
       </c>
@@ -5939,7 +5938,7 @@
         <v>44300.7</v>
       </c>
     </row>
-    <row r="111" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B111" s="17" t="s">
         <v>252</v>
       </c>
@@ -5975,7 +5974,7 @@
         <v>20170.05</v>
       </c>
     </row>
-    <row r="112" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B112" s="17" t="s">
         <v>224</v>
       </c>
@@ -6011,7 +6010,7 @@
         <v>18273.3</v>
       </c>
     </row>
-    <row r="113" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B113" s="17" t="s">
         <v>189</v>
       </c>
@@ -6047,7 +6046,7 @@
         <v>17005.05</v>
       </c>
     </row>
-    <row r="114" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B114" s="17" t="s">
         <v>220</v>
       </c>
@@ -6083,7 +6082,7 @@
         <v>37194.299999999996</v>
       </c>
     </row>
-    <row r="115" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B115" s="17" t="s">
         <v>294</v>
       </c>
@@ -6119,7 +6118,7 @@
         <v>15235.8</v>
       </c>
     </row>
-    <row r="116" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B116" s="17" t="s">
         <v>219</v>
       </c>
@@ -6155,7 +6154,7 @@
         <v>22154.399999999998</v>
       </c>
     </row>
-    <row r="117" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B117" s="17" t="s">
         <v>71</v>
       </c>
@@ -6191,7 +6190,7 @@
         <v>20092.05</v>
       </c>
     </row>
-    <row r="118" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B118" s="17" t="s">
         <v>109</v>
       </c>
@@ -6227,7 +6226,7 @@
         <v>51431.7</v>
       </c>
     </row>
-    <row r="119" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B119" s="17" t="s">
         <v>196</v>
       </c>
@@ -6263,7 +6262,7 @@
         <v>10560.9</v>
       </c>
     </row>
-    <row r="120" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B120" s="17" t="s">
         <v>82</v>
       </c>
@@ -6299,7 +6298,7 @@
         <v>100631.25</v>
       </c>
     </row>
-    <row r="121" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B121" s="17" t="s">
         <v>67</v>
       </c>
@@ -6335,7 +6334,7 @@
         <v>24456.899999999998</v>
       </c>
     </row>
-    <row r="122" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B122" s="17" t="s">
         <v>206</v>
       </c>
@@ -6371,7 +6370,7 @@
         <v>20153.55</v>
       </c>
     </row>
-    <row r="123" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B123" s="17" t="s">
         <v>81</v>
       </c>
@@ -6407,7 +6406,7 @@
         <v>17537.25</v>
       </c>
     </row>
-    <row r="124" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B124" s="17" t="s">
         <v>271</v>
       </c>
@@ -6443,7 +6442,7 @@
         <v>16707.75</v>
       </c>
     </row>
-    <row r="125" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B125" s="17" t="s">
         <v>172</v>
       </c>
@@ -6479,7 +6478,7 @@
         <v>17652.899999999998</v>
       </c>
     </row>
-    <row r="126" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B126" s="17" t="s">
         <v>227</v>
       </c>
@@ -6515,7 +6514,7 @@
         <v>60905.399999999994</v>
       </c>
     </row>
-    <row r="127" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B127" s="17" t="s">
         <v>70</v>
       </c>
@@ -6551,7 +6550,7 @@
         <v>15162.9</v>
       </c>
     </row>
-    <row r="128" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B128" s="17" t="s">
         <v>251</v>
       </c>
@@ -6587,7 +6586,7 @@
         <v>44300.7</v>
       </c>
     </row>
-    <row r="129" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B129" s="17" t="s">
         <v>269</v>
       </c>
@@ -6623,7 +6622,7 @@
         <v>20170.05</v>
       </c>
     </row>
-    <row r="130" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B130" s="17" t="s">
         <v>298</v>
       </c>
@@ -6659,7 +6658,7 @@
         <v>18273.3</v>
       </c>
     </row>
-    <row r="131" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B131" s="17" t="s">
         <v>232</v>
       </c>
@@ -6695,7 +6694,7 @@
         <v>17005.05</v>
       </c>
     </row>
-    <row r="132" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B132" s="17" t="s">
         <v>231</v>
       </c>
@@ -6731,7 +6730,7 @@
         <v>37194.299999999996</v>
       </c>
     </row>
-    <row r="133" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B133" s="17" t="s">
         <v>187</v>
       </c>
@@ -6767,7 +6766,7 @@
         <v>15235.8</v>
       </c>
     </row>
-    <row r="134" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B134" s="17" t="s">
         <v>253</v>
       </c>
@@ -6803,7 +6802,7 @@
         <v>22154.399999999998</v>
       </c>
     </row>
-    <row r="135" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B135" s="17" t="s">
         <v>75</v>
       </c>
@@ -6839,7 +6838,7 @@
         <v>20092.05</v>
       </c>
     </row>
-    <row r="136" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B136" s="17" t="s">
         <v>295</v>
       </c>
@@ -6875,7 +6874,7 @@
         <v>51431.7</v>
       </c>
     </row>
-    <row r="137" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B137" s="17" t="s">
         <v>247</v>
       </c>
@@ -6911,7 +6910,7 @@
         <v>10560.9</v>
       </c>
     </row>
-    <row r="138" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B138" s="17" t="s">
         <v>267</v>
       </c>
@@ -6947,7 +6946,7 @@
         <v>100631.25</v>
       </c>
     </row>
-    <row r="139" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B139" s="17" t="s">
         <v>315</v>
       </c>
@@ -6983,7 +6982,7 @@
         <v>24456.899999999998</v>
       </c>
     </row>
-    <row r="140" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B140" s="17" t="s">
         <v>283</v>
       </c>
@@ -7019,7 +7018,7 @@
         <v>20153.55</v>
       </c>
     </row>
-    <row r="141" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B141" s="17" t="s">
         <v>175</v>
       </c>
@@ -7055,7 +7054,7 @@
         <v>17537.25</v>
       </c>
     </row>
-    <row r="142" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B142" s="17" t="s">
         <v>303</v>
       </c>
@@ -7091,7 +7090,7 @@
         <v>16707.75</v>
       </c>
     </row>
-    <row r="143" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B143" s="17" t="s">
         <v>313</v>
       </c>
@@ -7127,7 +7126,7 @@
         <v>17652.899999999998</v>
       </c>
     </row>
-    <row r="144" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B144" s="17" t="s">
         <v>208</v>
       </c>
@@ -7163,7 +7162,7 @@
         <v>60905.399999999994</v>
       </c>
     </row>
-    <row r="145" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B145" s="17" t="s">
         <v>243</v>
       </c>
@@ -7199,7 +7198,7 @@
         <v>15162.9</v>
       </c>
     </row>
-    <row r="146" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B146" s="17" t="s">
         <v>262</v>
       </c>
@@ -7235,7 +7234,7 @@
         <v>44300.7</v>
       </c>
     </row>
-    <row r="147" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B147" s="17" t="s">
         <v>55</v>
       </c>
@@ -7271,7 +7270,7 @@
         <v>20170.05</v>
       </c>
     </row>
-    <row r="148" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B148" s="17" t="s">
         <v>207</v>
       </c>
@@ -7307,7 +7306,7 @@
         <v>18273.3</v>
       </c>
     </row>
-    <row r="149" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B149" s="17" t="s">
         <v>309</v>
       </c>
@@ -7343,7 +7342,7 @@
         <v>17005.05</v>
       </c>
     </row>
-    <row r="150" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B150" s="17" t="s">
         <v>204</v>
       </c>
@@ -7379,7 +7378,7 @@
         <v>37194.299999999996</v>
       </c>
     </row>
-    <row r="151" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B151" s="17" t="s">
         <v>291</v>
       </c>
@@ -7415,7 +7414,7 @@
         <v>15235.8</v>
       </c>
     </row>
-    <row r="152" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B152" s="17" t="s">
         <v>266</v>
       </c>
@@ -7451,7 +7450,7 @@
         <v>22154.399999999998</v>
       </c>
     </row>
-    <row r="153" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B153" s="17" t="s">
         <v>52</v>
       </c>
@@ -7487,7 +7486,7 @@
         <v>20092.05</v>
       </c>
     </row>
-    <row r="154" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B154" s="17" t="s">
         <v>95</v>
       </c>
@@ -7523,7 +7522,7 @@
         <v>51431.7</v>
       </c>
     </row>
-    <row r="155" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B155" s="17" t="s">
         <v>84</v>
       </c>
@@ -7559,7 +7558,7 @@
         <v>10560.9</v>
       </c>
     </row>
-    <row r="156" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B156" s="17" t="s">
         <v>272</v>
       </c>
@@ -7595,7 +7594,7 @@
         <v>100631.25</v>
       </c>
     </row>
-    <row r="157" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B157" s="17" t="s">
         <v>238</v>
       </c>
@@ -7631,7 +7630,7 @@
         <v>24456.899999999998</v>
       </c>
     </row>
-    <row r="158" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B158" s="17" t="s">
         <v>51</v>
       </c>
@@ -7667,7 +7666,7 @@
         <v>20153.55</v>
       </c>
     </row>
-    <row r="159" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B159" s="17" t="s">
         <v>48</v>
       </c>
@@ -7703,7 +7702,7 @@
         <v>17537.25</v>
       </c>
     </row>
-    <row r="160" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B160" s="17" t="s">
         <v>174</v>
       </c>
@@ -7739,7 +7738,7 @@
         <v>16707.75</v>
       </c>
     </row>
-    <row r="161" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B161" s="17" t="s">
         <v>197</v>
       </c>
@@ -7775,7 +7774,7 @@
         <v>17652.899999999998</v>
       </c>
     </row>
-    <row r="162" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B162" s="17" t="s">
         <v>76</v>
       </c>
@@ -7811,7 +7810,7 @@
         <v>60905.399999999994</v>
       </c>
     </row>
-    <row r="163" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B163" s="17" t="s">
         <v>43</v>
       </c>
@@ -8351,7 +8350,7 @@
         <v>17537.25</v>
       </c>
     </row>
-    <row r="178" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B178" s="17" t="s">
         <v>288</v>
       </c>
@@ -8387,7 +8386,7 @@
         <v>16707.75</v>
       </c>
     </row>
-    <row r="179" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B179" s="17" t="s">
         <v>279</v>
       </c>
@@ -8423,7 +8422,7 @@
         <v>17652.899999999998</v>
       </c>
     </row>
-    <row r="180" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B180" s="17" t="s">
         <v>259</v>
       </c>
@@ -8459,7 +8458,7 @@
         <v>60905.399999999994</v>
       </c>
     </row>
-    <row r="181" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B181" s="17" t="s">
         <v>61</v>
       </c>
@@ -8495,7 +8494,7 @@
         <v>15162.9</v>
       </c>
     </row>
-    <row r="182" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B182" s="17" t="s">
         <v>225</v>
       </c>
@@ -8531,7 +8530,7 @@
         <v>44300.7</v>
       </c>
     </row>
-    <row r="183" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B183" s="17" t="s">
         <v>302</v>
       </c>
@@ -8567,7 +8566,7 @@
         <v>20170.05</v>
       </c>
     </row>
-    <row r="184" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B184" s="17" t="s">
         <v>60</v>
       </c>
@@ -8603,7 +8602,7 @@
         <v>18273.3</v>
       </c>
     </row>
-    <row r="185" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B185" s="17" t="s">
         <v>134</v>
       </c>
@@ -8639,7 +8638,7 @@
         <v>17005.05</v>
       </c>
     </row>
-    <row r="186" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B186" s="17" t="s">
         <v>216</v>
       </c>
@@ -8675,7 +8674,7 @@
         <v>37194.299999999996</v>
       </c>
     </row>
-    <row r="187" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B187" s="17" t="s">
         <v>185</v>
       </c>
@@ -8711,7 +8710,7 @@
         <v>15235.8</v>
       </c>
     </row>
-    <row r="188" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B188" s="17" t="s">
         <v>249</v>
       </c>
@@ -8747,7 +8746,7 @@
         <v>22154.399999999998</v>
       </c>
     </row>
-    <row r="189" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B189" s="17" t="s">
         <v>282</v>
       </c>
@@ -8783,7 +8782,7 @@
         <v>20092.05</v>
       </c>
     </row>
-    <row r="190" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B190" s="17" t="s">
         <v>221</v>
       </c>
@@ -8819,7 +8818,7 @@
         <v>51431.7</v>
       </c>
     </row>
-    <row r="191" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B191" s="17" t="s">
         <v>169</v>
       </c>
@@ -8855,7 +8854,7 @@
         <v>10560.9</v>
       </c>
     </row>
-    <row r="192" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B192" s="17" t="s">
         <v>222</v>
       </c>
@@ -8891,7 +8890,7 @@
         <v>100631.25</v>
       </c>
     </row>
-    <row r="193" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B193" s="17" t="s">
         <v>116</v>
       </c>
@@ -8927,7 +8926,7 @@
         <v>24456.899999999998</v>
       </c>
     </row>
-    <row r="194" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B194" s="17" t="s">
         <v>146</v>
       </c>
@@ -8963,7 +8962,7 @@
         <v>20153.55</v>
       </c>
     </row>
-    <row r="195" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B195" s="17" t="s">
         <v>215</v>
       </c>
@@ -8999,7 +8998,7 @@
         <v>17537.25</v>
       </c>
     </row>
-    <row r="196" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B196" s="17" t="s">
         <v>285</v>
       </c>
@@ -9035,7 +9034,7 @@
         <v>16707.75</v>
       </c>
     </row>
-    <row r="197" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B197" s="17" t="s">
         <v>257</v>
       </c>
@@ -9071,7 +9070,7 @@
         <v>17652.899999999998</v>
       </c>
     </row>
-    <row r="198" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B198" s="17" t="s">
         <v>278</v>
       </c>
@@ -9107,7 +9106,7 @@
         <v>60905.399999999994</v>
       </c>
     </row>
-    <row r="199" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B199" s="17" t="s">
         <v>254</v>
       </c>
@@ -9143,7 +9142,7 @@
         <v>15162.9</v>
       </c>
     </row>
-    <row r="200" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B200" s="17" t="s">
         <v>140</v>
       </c>
@@ -9179,7 +9178,7 @@
         <v>44300.7</v>
       </c>
     </row>
-    <row r="201" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B201" s="17" t="s">
         <v>286</v>
       </c>
@@ -9215,7 +9214,7 @@
         <v>20170.05</v>
       </c>
     </row>
-    <row r="202" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B202" s="17" t="s">
         <v>308</v>
       </c>
@@ -9251,7 +9250,7 @@
         <v>18273.3</v>
       </c>
     </row>
-    <row r="203" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B203" s="17" t="s">
         <v>164</v>
       </c>
@@ -9287,7 +9286,7 @@
         <v>17005.05</v>
       </c>
     </row>
-    <row r="204" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B204" s="17" t="s">
         <v>59</v>
       </c>
@@ -9323,7 +9322,7 @@
         <v>37194.299999999996</v>
       </c>
     </row>
-    <row r="205" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B205" s="17" t="s">
         <v>89</v>
       </c>
@@ -9359,7 +9358,7 @@
         <v>15235.8</v>
       </c>
     </row>
-    <row r="206" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B206" s="17" t="s">
         <v>102</v>
       </c>
@@ -9395,7 +9394,7 @@
         <v>22154.399999999998</v>
       </c>
     </row>
-    <row r="207" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B207" s="17" t="s">
         <v>183</v>
       </c>
@@ -9431,7 +9430,7 @@
         <v>20092.05</v>
       </c>
     </row>
-    <row r="208" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B208" s="17" t="s">
         <v>44</v>
       </c>
@@ -9467,7 +9466,7 @@
         <v>51431.7</v>
       </c>
     </row>
-    <row r="209" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B209" s="17" t="s">
         <v>246</v>
       </c>
@@ -9503,7 +9502,7 @@
         <v>10560.9</v>
       </c>
     </row>
-    <row r="210" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B210" s="17" t="s">
         <v>163</v>
       </c>
@@ -9539,7 +9538,7 @@
         <v>100631.25</v>
       </c>
     </row>
-    <row r="211" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B211" s="17" t="s">
         <v>101</v>
       </c>
@@ -9575,7 +9574,7 @@
         <v>24456.899999999998</v>
       </c>
     </row>
-    <row r="212" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B212" s="17" t="s">
         <v>176</v>
       </c>
@@ -9611,7 +9610,7 @@
         <v>20153.55</v>
       </c>
     </row>
-    <row r="213" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B213" s="17" t="s">
         <v>158</v>
       </c>
@@ -9647,7 +9646,7 @@
         <v>17537.25</v>
       </c>
     </row>
-    <row r="214" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B214" s="17" t="s">
         <v>91</v>
       </c>
@@ -9683,7 +9682,7 @@
         <v>16707.75</v>
       </c>
     </row>
-    <row r="215" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B215" s="17" t="s">
         <v>171</v>
       </c>
@@ -9719,7 +9718,7 @@
         <v>17652.899999999998</v>
       </c>
     </row>
-    <row r="216" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B216" s="17" t="s">
         <v>98</v>
       </c>
@@ -9755,7 +9754,7 @@
         <v>60905.399999999994</v>
       </c>
     </row>
-    <row r="217" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B217" s="17" t="s">
         <v>203</v>
       </c>
@@ -9791,7 +9790,7 @@
         <v>15162.9</v>
       </c>
     </row>
-    <row r="218" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B218" s="17" t="s">
         <v>301</v>
       </c>
@@ -9827,7 +9826,7 @@
         <v>44300.7</v>
       </c>
     </row>
-    <row r="219" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B219" s="17" t="s">
         <v>264</v>
       </c>
@@ -9863,7 +9862,7 @@
         <v>20170.05</v>
       </c>
     </row>
-    <row r="220" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B220" s="17" t="s">
         <v>311</v>
       </c>
@@ -9899,7 +9898,7 @@
         <v>18273.3</v>
       </c>
     </row>
-    <row r="221" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B221" s="17" t="s">
         <v>258</v>
       </c>
@@ -9935,7 +9934,7 @@
         <v>17005.05</v>
       </c>
     </row>
-    <row r="222" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B222" s="17" t="s">
         <v>103</v>
       </c>
@@ -9971,7 +9970,7 @@
         <v>37194.299999999996</v>
       </c>
     </row>
-    <row r="223" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B223" s="17" t="s">
         <v>68</v>
       </c>
@@ -10007,7 +10006,7 @@
         <v>15235.8</v>
       </c>
     </row>
-    <row r="224" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B224" s="17" t="s">
         <v>274</v>
       </c>
@@ -10043,7 +10042,7 @@
         <v>22154.399999999998</v>
       </c>
     </row>
-    <row r="225" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B225" s="17" t="s">
         <v>40</v>
       </c>
@@ -10079,7 +10078,7 @@
         <v>20092.05</v>
       </c>
     </row>
-    <row r="226" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B226" s="17" t="s">
         <v>166</v>
       </c>
@@ -10115,7 +10114,7 @@
         <v>51431.7</v>
       </c>
     </row>
-    <row r="227" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B227" s="17" t="s">
         <v>194</v>
       </c>
@@ -10151,7 +10150,7 @@
         <v>10560.9</v>
       </c>
     </row>
-    <row r="228" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B228" s="17" t="s">
         <v>106</v>
       </c>
@@ -10187,7 +10186,7 @@
         <v>100631.25</v>
       </c>
     </row>
-    <row r="229" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B229" s="17" t="s">
         <v>292</v>
       </c>
@@ -10223,7 +10222,7 @@
         <v>24456.899999999998</v>
       </c>
     </row>
-    <row r="230" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B230" s="17" t="s">
         <v>154</v>
       </c>
@@ -10259,7 +10258,7 @@
         <v>20153.55</v>
       </c>
     </row>
-    <row r="231" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B231" s="17" t="s">
         <v>120</v>
       </c>
@@ -10295,7 +10294,7 @@
         <v>17537.25</v>
       </c>
     </row>
-    <row r="232" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B232" s="17" t="s">
         <v>37</v>
       </c>
@@ -10331,7 +10330,7 @@
         <v>16707.75</v>
       </c>
     </row>
-    <row r="233" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B233" s="17" t="s">
         <v>237</v>
       </c>
@@ -10367,7 +10366,7 @@
         <v>17652.899999999998</v>
       </c>
     </row>
-    <row r="234" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B234" s="17" t="s">
         <v>122</v>
       </c>
@@ -10403,7 +10402,7 @@
         <v>60905.399999999994</v>
       </c>
     </row>
-    <row r="235" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B235" s="17" t="s">
         <v>276</v>
       </c>
@@ -10439,7 +10438,7 @@
         <v>15162.9</v>
       </c>
     </row>
-    <row r="236" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B236" s="17" t="s">
         <v>135</v>
       </c>
@@ -10475,7 +10474,7 @@
         <v>44300.7</v>
       </c>
     </row>
-    <row r="237" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B237" s="17" t="s">
         <v>300</v>
       </c>
@@ -10511,7 +10510,7 @@
         <v>20170.05</v>
       </c>
     </row>
-    <row r="238" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B238" s="17" t="s">
         <v>96</v>
       </c>
@@ -10547,7 +10546,7 @@
         <v>18273.3</v>
       </c>
     </row>
-    <row r="239" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B239" s="17" t="s">
         <v>218</v>
       </c>
@@ -10583,7 +10582,7 @@
         <v>17005.05</v>
       </c>
     </row>
-    <row r="240" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B240" s="17" t="s">
         <v>299</v>
       </c>
@@ -10619,7 +10618,7 @@
         <v>37194.299999999996</v>
       </c>
     </row>
-    <row r="241" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B241" s="17" t="s">
         <v>110</v>
       </c>
@@ -10655,7 +10654,7 @@
         <v>15235.8</v>
       </c>
     </row>
-    <row r="242" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B242" s="17" t="s">
         <v>173</v>
       </c>
@@ -10691,7 +10690,7 @@
         <v>22154.399999999998</v>
       </c>
     </row>
-    <row r="243" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B243" s="17" t="s">
         <v>148</v>
       </c>
@@ -10727,7 +10726,7 @@
         <v>20092.05</v>
       </c>
     </row>
-    <row r="244" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B244" s="17" t="s">
         <v>217</v>
       </c>
@@ -10763,7 +10762,7 @@
         <v>51431.7</v>
       </c>
     </row>
-    <row r="245" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B245" s="17" t="s">
         <v>241</v>
       </c>
@@ -10799,7 +10798,7 @@
         <v>10560.9</v>
       </c>
     </row>
-    <row r="246" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B246" s="17" t="s">
         <v>151</v>
       </c>
@@ -10835,7 +10834,7 @@
         <v>100631.25</v>
       </c>
     </row>
-    <row r="247" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B247" s="17" t="s">
         <v>270</v>
       </c>
@@ -10871,7 +10870,7 @@
         <v>24456.899999999998</v>
       </c>
     </row>
-    <row r="248" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B248" s="17" t="s">
         <v>119</v>
       </c>
@@ -10907,7 +10906,7 @@
         <v>20153.55</v>
       </c>
     </row>
-    <row r="249" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B249" s="17" t="s">
         <v>261</v>
       </c>
@@ -10943,7 +10942,7 @@
         <v>17537.25</v>
       </c>
     </row>
-    <row r="250" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B250" s="17" t="s">
         <v>193</v>
       </c>
@@ -10979,7 +10978,7 @@
         <v>16707.75</v>
       </c>
     </row>
-    <row r="251" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B251" s="17" t="s">
         <v>123</v>
       </c>
@@ -11015,7 +11014,7 @@
         <v>17652.899999999998</v>
       </c>
     </row>
-    <row r="252" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B252" s="17" t="s">
         <v>289</v>
       </c>
@@ -11051,7 +11050,7 @@
         <v>60905.399999999994</v>
       </c>
     </row>
-    <row r="253" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B253" s="17" t="s">
         <v>159</v>
       </c>
@@ -11087,7 +11086,7 @@
         <v>15162.9</v>
       </c>
     </row>
-    <row r="254" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B254" s="17" t="s">
         <v>202</v>
       </c>
@@ -11123,7 +11122,7 @@
         <v>44300.7</v>
       </c>
     </row>
-    <row r="255" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B255" s="17" t="s">
         <v>248</v>
       </c>
@@ -11159,7 +11158,7 @@
         <v>20170.05</v>
       </c>
     </row>
-    <row r="256" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B256" s="17" t="s">
         <v>280</v>
       </c>
@@ -11195,7 +11194,7 @@
         <v>18273.3</v>
       </c>
     </row>
-    <row r="257" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B257" s="17" t="s">
         <v>242</v>
       </c>
@@ -11231,7 +11230,7 @@
         <v>17005.05</v>
       </c>
     </row>
-    <row r="258" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B258" s="17" t="s">
         <v>152</v>
       </c>
@@ -11267,7 +11266,7 @@
         <v>37194.299999999996</v>
       </c>
     </row>
-    <row r="259" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B259" s="17" t="s">
         <v>162</v>
       </c>
@@ -11303,7 +11302,7 @@
         <v>15235.8</v>
       </c>
     </row>
-    <row r="260" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B260" s="17" t="s">
         <v>263</v>
       </c>
@@ -11339,7 +11338,7 @@
         <v>22154.399999999998</v>
       </c>
     </row>
-    <row r="261" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B261" s="17" t="s">
         <v>64</v>
       </c>
@@ -11375,7 +11374,7 @@
         <v>20092.05</v>
       </c>
     </row>
-    <row r="262" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B262" s="17" t="s">
         <v>284</v>
       </c>
@@ -11411,7 +11410,7 @@
         <v>51431.7</v>
       </c>
     </row>
-    <row r="263" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B263" s="17" t="s">
         <v>212</v>
       </c>
@@ -11447,7 +11446,7 @@
         <v>10560.9</v>
       </c>
     </row>
-    <row r="264" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B264" s="17" t="s">
         <v>138</v>
       </c>
@@ -11483,7 +11482,7 @@
         <v>100631.25</v>
       </c>
     </row>
-    <row r="265" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B265" s="17" t="s">
         <v>144</v>
       </c>
@@ -11519,7 +11518,7 @@
         <v>24456.899999999998</v>
       </c>
     </row>
-    <row r="266" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B266" s="17" t="s">
         <v>296</v>
       </c>
@@ -11555,7 +11554,7 @@
         <v>20153.55</v>
       </c>
     </row>
-    <row r="267" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B267" s="17" t="s">
         <v>200</v>
       </c>
@@ -11591,7 +11590,7 @@
         <v>17537.25</v>
       </c>
     </row>
-    <row r="268" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B268" s="17" t="s">
         <v>275</v>
       </c>
@@ -11627,7 +11626,7 @@
         <v>16707.75</v>
       </c>
     </row>
-    <row r="269" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B269" s="17" t="s">
         <v>143</v>
       </c>
@@ -11663,7 +11662,7 @@
         <v>17652.899999999998</v>
       </c>
     </row>
-    <row r="270" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B270" s="17" t="s">
         <v>250</v>
       </c>
@@ -11699,7 +11698,7 @@
         <v>60905.399999999994</v>
       </c>
     </row>
-    <row r="271" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B271" s="17" t="s">
         <v>213</v>
       </c>
@@ -11735,7 +11734,7 @@
         <v>15162.9</v>
       </c>
     </row>
-    <row r="272" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B272" s="17" t="s">
         <v>177</v>
       </c>
@@ -11771,7 +11770,7 @@
         <v>44300.7</v>
       </c>
     </row>
-    <row r="273" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B273" s="17" t="s">
         <v>228</v>
       </c>
@@ -11807,7 +11806,7 @@
         <v>20170.05</v>
       </c>
     </row>
-    <row r="274" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B274" s="17" t="s">
         <v>229</v>
       </c>
@@ -11843,7 +11842,7 @@
         <v>18273.3</v>
       </c>
     </row>
-    <row r="275" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B275" s="17" t="s">
         <v>239</v>
       </c>
@@ -11879,7 +11878,7 @@
         <v>17005.05</v>
       </c>
     </row>
-    <row r="276" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B276" s="17" t="s">
         <v>230</v>
       </c>
@@ -11915,7 +11914,7 @@
         <v>37194.299999999996</v>
       </c>
     </row>
-    <row r="277" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B277" s="17" t="s">
         <v>290</v>
       </c>
@@ -11951,7 +11950,7 @@
         <v>15235.8</v>
       </c>
     </row>
-    <row r="278" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B278" s="17" t="s">
         <v>268</v>
       </c>
@@ -11987,7 +11986,7 @@
         <v>22154.399999999998</v>
       </c>
     </row>
-    <row r="279" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B279" s="17" t="s">
         <v>87</v>
       </c>
@@ -12023,7 +12022,7 @@
         <v>20092.05</v>
       </c>
     </row>
-    <row r="280" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B280" s="17" t="s">
         <v>57</v>
       </c>
@@ -12059,7 +12058,7 @@
         <v>51431.7</v>
       </c>
     </row>
-    <row r="281" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B281" s="17" t="s">
         <v>35</v>
       </c>
@@ -12095,7 +12094,7 @@
         <v>10560.9</v>
       </c>
     </row>
-    <row r="282" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B282" s="17" t="s">
         <v>54</v>
       </c>
@@ -12131,7 +12130,7 @@
         <v>100631.25</v>
       </c>
     </row>
-    <row r="283" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B283" s="17" t="s">
         <v>104</v>
       </c>
@@ -12167,7 +12166,7 @@
         <v>24456.899999999998</v>
       </c>
     </row>
-    <row r="284" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B284" s="17" t="s">
         <v>63</v>
       </c>
@@ -12203,7 +12202,7 @@
         <v>20153.55</v>
       </c>
     </row>
-    <row r="285" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B285" s="17" t="s">
         <v>126</v>
       </c>
@@ -12239,39 +12238,20 @@
         <v>17537.25</v>
       </c>
     </row>
-    <row r="286" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C286" s="1"/>
     </row>
-    <row r="287" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C287" s="2"/>
     </row>
-    <row r="288" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C288" s="1"/>
     </row>
-    <row r="289" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C289" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O289" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="MMR012001"/>
-        <filter val="MMR012003"/>
-        <filter val="MMR012004"/>
-        <filter val="MMR012005"/>
-        <filter val="MMR012006"/>
-        <filter val="MMR012007"/>
-        <filter val="MMR012010"/>
-        <filter val="MMR012011"/>
-        <filter val="MMR012012"/>
-        <filter val="MMR012013"/>
-        <filter val="MMR012014"/>
-        <filter val="MMR012015"/>
-        <filter val="MMR012016"/>
-        <filter val="MMR012017"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:O289" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -12281,7 +12261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350E67D7-B42C-453C-B8FD-12FFB2E3B7DC}">
   <dimension ref="A1:C197"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+    <sheetView zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -12292,7 +12272,7 @@
     <col min="3" max="3" width="46.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="131.25" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>317</v>
       </c>
@@ -13033,14 +13013,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e7a156ab-dec1-49fa-a9cf-4ddad9eb4e7c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7a5b9cf8-6f84-47d8-bb23-7f0863df71c6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13273,27 +13251,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e7a156ab-dec1-49fa-a9cf-4ddad9eb4e7c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7a5b9cf8-6f84-47d8-bb23-7f0863df71c6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACDE1998-78A0-4AB1-AFCD-9276514F0C55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC937314-729B-4777-838C-84FB6EF2646E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7a5b9cf8-6f84-47d8-bb23-7f0863df71c6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e7a156ab-dec1-49fa-a9cf-4ddad9eb4e7c"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13318,9 +13289,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC937314-729B-4777-838C-84FB6EF2646E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACDE1998-78A0-4AB1-AFCD-9276514F0C55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7a5b9cf8-6f84-47d8-bb23-7f0863df71c6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e7a156ab-dec1-49fa-a9cf-4ddad9eb4e7c"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>